--- a/Data/EC/NIT-9008602849.xlsx
+++ b/Data/EC/NIT-9008602849.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E618C99-1888-4924-A845-210166EEEFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98DE55A3-8D28-4632-82B3-19E8C6010C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31ED05F6-D363-47C2-8036-A36361920A58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57767EBD-18E6-4F4C-94AF-DC9DF1D5E192}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="72">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,25 +65,145 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1041972639</t>
+  </si>
+  <si>
+    <t>MARIA GABRIELA FUENTES SILVA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1143334843</t>
+  </si>
+  <si>
+    <t>NEVIS TORRES PEREZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1047451156</t>
+  </si>
+  <si>
+    <t>YULEIMA ROYERO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1047507984</t>
+  </si>
+  <si>
+    <t>SAMANTHA OBYRNE PERDOMO</t>
+  </si>
+  <si>
+    <t>1007211306</t>
+  </si>
+  <si>
+    <t>RUBEN ANTONIO SOTO DE VOZ</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1143375494</t>
+  </si>
+  <si>
+    <t>HANNIA DEL CARMEN CABALLERO SALAS</t>
+  </si>
+  <si>
     <t>1063359999</t>
   </si>
   <si>
     <t>INGRIS LUCIA MORALES MORALES</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>2106</t>
   </si>
   <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>1143334843</t>
-  </si>
-  <si>
-    <t>NEVIS TORRES PEREZ</t>
-  </si>
-  <si>
-    <t>2109</t>
+    <t>1007255930</t>
+  </si>
+  <si>
+    <t>MARIA CAMILA CHIGUILLO FLOREZ</t>
+  </si>
+  <si>
+    <t>1047490368</t>
+  </si>
+  <si>
+    <t>MARILYN AMIRA ANAYA BARRIOS</t>
   </si>
   <si>
     <t>1047478262</t>
@@ -99,111 +219,6 @@
   </si>
   <si>
     <t>JANITH MICHELLE ZUÃ?IGA ROMERO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1007211306</t>
-  </si>
-  <si>
-    <t>RUBEN ANTONIO SOTO DE VOZ</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>1041972639</t>
-  </si>
-  <si>
-    <t>MARIA GABRIELA FUENTES SILVA</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>1047490368</t>
-  </si>
-  <si>
-    <t>MARILYN AMIRA ANAYA BARRIOS</t>
-  </si>
-  <si>
-    <t>1143375494</t>
-  </si>
-  <si>
-    <t>HANNIA DEL CARMEN CABALLERO SALAS</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1047507984</t>
-  </si>
-  <si>
-    <t>SAMANTHA OBYRNE PERDOMO</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -247,7 +262,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DF343F-6E43-E955-51F7-969B7CCB306B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87FAEDD-DBEE-DEBC-897E-79EE18450033}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,32 +983,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D9CB09-9A29-41BD-8331-2079124F0EB8}">
-  <dimension ref="B2:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2161A43F-2C69-44E7-936D-B21AA3652DED}">
+  <dimension ref="B2:J116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1002,7 +1017,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1013,7 +1028,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1024,7 +1039,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1035,10 +1050,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1051,8 +1066,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1067,15 +1082,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3692610</v>
+        <v>4261610</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1083,27 +1098,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F13" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1123,16 +1138,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1146,16 +1161,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37988</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>949717</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1169,76 +1184,76 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>21527</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>949717</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>859784</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>2667</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>21654</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
         <v>1160000</v>
@@ -1247,18 +1262,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1270,18 +1285,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1293,18 +1308,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1316,18 +1331,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1339,21 +1354,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>20107</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
         <v>1160000</v>
@@ -1362,18 +1377,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1385,18 +1400,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1408,18 +1423,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1431,41 +1446,41 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1477,18 +1492,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1500,18 +1515,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1523,18 +1538,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1546,18 +1561,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1569,18 +1584,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1592,18 +1607,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1615,18 +1630,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1638,18 +1653,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1661,21 +1676,21 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>20107</v>
       </c>
       <c r="G39" s="18">
         <v>1160000</v>
@@ -1684,202 +1699,202 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>859784</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>18980</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>51246</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1891,18 +1906,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1914,18 +1929,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1937,18 +1952,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1960,18 +1975,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1983,18 +1998,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2006,18 +2021,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2029,18 +2044,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2052,18 +2067,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2075,18 +2090,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2098,18 +2113,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2121,18 +2136,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2144,18 +2159,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2167,18 +2182,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2190,18 +2205,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2213,18 +2228,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2236,18 +2251,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2259,18 +2274,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2282,18 +2297,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2305,18 +2320,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2328,18 +2343,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2351,18 +2366,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2374,18 +2389,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2397,18 +2412,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2420,18 +2435,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2443,18 +2458,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F73" s="18">
         <v>46400</v>
@@ -2466,271 +2481,271 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F74" s="18">
         <v>46400</v>
       </c>
       <c r="G74" s="18">
-        <v>1160000</v>
+        <v>828116</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F75" s="18">
-        <v>46400</v>
+        <v>21527</v>
       </c>
       <c r="G75" s="18">
-        <v>1160000</v>
+        <v>949717</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F76" s="18">
-        <v>46400</v>
+        <v>37988</v>
       </c>
       <c r="G76" s="18">
-        <v>1160000</v>
+        <v>949717</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F77" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G77" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F78" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F79" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G79" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F80" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F81" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G81" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F82" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F84" s="18">
-        <v>46400</v>
+        <v>2667</v>
       </c>
       <c r="G84" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F85" s="18">
         <v>46400</v>
@@ -2742,18 +2757,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F86" s="18">
         <v>46400</v>
@@ -2765,41 +2780,41 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F87" s="18">
-        <v>51246</v>
+        <v>46400</v>
       </c>
       <c r="G87" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2811,18 +2826,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F89" s="18">
         <v>46400</v>
@@ -2834,41 +2849,41 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F90" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G90" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
@@ -2880,18 +2895,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F92" s="18">
         <v>46400</v>
@@ -2903,18 +2918,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
@@ -2926,18 +2941,18 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F94" s="18">
         <v>46400</v>
@@ -2949,18 +2964,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
@@ -2972,18 +2987,18 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
@@ -2995,57 +3010,356 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F97" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G97" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="H102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" s="32"/>
-      <c r="H103" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G97" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G98" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G99" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G100" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G109" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110" s="24">
+        <v>21654</v>
+      </c>
+      <c r="G110" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="26"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="32"/>
+      <c r="H115" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="H116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H115:J115"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9008602849.xlsx
+++ b/Data/EC/NIT-9008602849.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98DE55A3-8D28-4632-82B3-19E8C6010C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D010E49-78A2-4689-9E54-C52104137B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57767EBD-18E6-4F4C-94AF-DC9DF1D5E192}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49B7D453-B833-429D-AF6D-F0AC488801B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="69">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,160 +65,151 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1063359999</t>
+  </si>
+  <si>
+    <t>INGRIS LUCIA MORALES MORALES</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>1143334843</t>
+  </si>
+  <si>
+    <t>NEVIS TORRES PEREZ</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1047478262</t>
+  </si>
+  <si>
+    <t>SANTANDER JOSE AHUMADA SILVA</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>1007211306</t>
+  </si>
+  <si>
+    <t>RUBEN ANTONIO SOTO DE VOZ</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>1048435828</t>
+  </si>
+  <si>
+    <t>JANITH MICHELLE ZUÃ?IGA ROMERO</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
     <t>1041972639</t>
   </si>
   <si>
     <t>MARIA GABRIELA FUENTES SILVA</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1143375494</t>
+  </si>
+  <si>
+    <t>HANNIA DEL CARMEN CABALLERO SALAS</t>
+  </si>
+  <si>
+    <t>1047490368</t>
+  </si>
+  <si>
+    <t>MARILYN AMIRA ANAYA BARRIOS</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1047507984</t>
+  </si>
+  <si>
+    <t>SAMANTHA OBYRNE PERDOMO</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>1143334843</t>
-  </si>
-  <si>
-    <t>NEVIS TORRES PEREZ</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1047451156</t>
-  </si>
-  <si>
-    <t>YULEIMA ROYERO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1047507984</t>
-  </si>
-  <si>
-    <t>SAMANTHA OBYRNE PERDOMO</t>
-  </si>
-  <si>
-    <t>1007211306</t>
-  </si>
-  <si>
-    <t>RUBEN ANTONIO SOTO DE VOZ</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1143375494</t>
-  </si>
-  <si>
-    <t>HANNIA DEL CARMEN CABALLERO SALAS</t>
-  </si>
-  <si>
-    <t>1063359999</t>
-  </si>
-  <si>
-    <t>INGRIS LUCIA MORALES MORALES</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>1007255930</t>
-  </si>
-  <si>
-    <t>MARIA CAMILA CHIGUILLO FLOREZ</t>
-  </si>
-  <si>
-    <t>1047490368</t>
-  </si>
-  <si>
-    <t>MARILYN AMIRA ANAYA BARRIOS</t>
-  </si>
-  <si>
-    <t>1047478262</t>
-  </si>
-  <si>
-    <t>SANTANDER JOSE AHUMADA SILVA</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>1048435828</t>
-  </si>
-  <si>
-    <t>JANITH MICHELLE ZUÃ?IGA ROMERO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -317,7 +308,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,23 +523,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +567,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87FAEDD-DBEE-DEBC-897E-79EE18450033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969308C9-5447-EFE7-B52F-25D6C7DA0C5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,8 +974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2161A43F-2C69-44E7-936D-B21AA3652DED}">
-  <dimension ref="B2:J116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7AEF0B-F973-46EC-A702-7CF0FB4F3D0A}">
+  <dimension ref="B2:J108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1008,7 +999,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1053,7 +1044,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1085,12 +1076,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4261610</v>
+        <v>3945690</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1101,17 +1092,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1138,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1161,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>37988</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>949717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1184,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>21527</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>949717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1198,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>859784</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1221,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>2667</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1244,13 +1235,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1267,16 +1258,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>21654</v>
       </c>
       <c r="G21" s="18">
         <v>1160000</v>
@@ -1290,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1313,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1336,16 +1327,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>20107</v>
       </c>
       <c r="G24" s="18">
         <v>1160000</v>
@@ -1359,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1382,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1405,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1428,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1451,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1474,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1497,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1520,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1543,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1566,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1589,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1612,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1635,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1658,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1681,16 +1672,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
-        <v>20107</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
         <v>1160000</v>
@@ -1704,19 +1695,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>859784</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1727,19 +1718,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1750,19 +1741,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1773,19 +1764,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
-        <v>18980</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1796,19 +1787,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1819,19 +1810,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1842,19 +1833,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1865,19 +1856,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
-        <v>51246</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1888,13 +1879,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
         <v>46400</v>
@@ -1911,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1934,13 +1925,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
         <v>46400</v>
@@ -1957,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1980,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -2003,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2026,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2049,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2072,13 +2063,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2095,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2118,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2141,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2164,13 +2155,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2187,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2210,13 +2201,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
@@ -2233,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2256,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2279,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2302,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2325,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2348,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2371,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2394,13 +2385,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F70" s="18">
         <v>46400</v>
@@ -2417,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F71" s="18">
         <v>46400</v>
@@ -2440,13 +2431,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F72" s="18">
         <v>46400</v>
@@ -2463,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F73" s="18">
         <v>46400</v>
@@ -2486,19 +2477,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D74" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F74" s="18">
         <v>46400</v>
       </c>
       <c r="G74" s="18">
-        <v>828116</v>
+        <v>1160000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2509,19 +2500,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F75" s="18">
-        <v>21527</v>
+        <v>46400</v>
       </c>
       <c r="G75" s="18">
-        <v>949717</v>
+        <v>1160000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2532,19 +2523,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F76" s="18">
-        <v>37988</v>
+        <v>46400</v>
       </c>
       <c r="G76" s="18">
-        <v>949717</v>
+        <v>1160000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2555,19 +2546,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F77" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G77" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2578,19 +2569,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F78" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G78" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2601,19 +2592,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G79" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2624,19 +2615,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2647,19 +2638,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F81" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G81" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2670,19 +2661,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2693,19 +2684,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2716,19 +2707,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="18">
-        <v>2667</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2739,19 +2730,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F85" s="18">
-        <v>46400</v>
+        <v>51246</v>
       </c>
       <c r="G85" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2762,13 +2753,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F86" s="18">
         <v>46400</v>
@@ -2785,13 +2776,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F87" s="18">
         <v>46400</v>
@@ -2808,19 +2799,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F88" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G88" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2831,13 +2822,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F89" s="18">
         <v>46400</v>
@@ -2854,13 +2845,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
@@ -2877,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F91" s="18">
         <v>46400</v>
@@ -2900,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F92" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G92" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2923,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F93" s="18">
         <v>46400</v>
@@ -2946,13 +2937,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F94" s="18">
         <v>46400</v>
@@ -2969,13 +2960,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
@@ -2992,19 +2983,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F96" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G96" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3015,13 +3006,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
@@ -3038,13 +3029,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F98" s="18">
         <v>46400</v>
@@ -3061,13 +3052,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F99" s="18">
         <v>46400</v>
@@ -3084,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F100" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G100" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3107,13 +3098,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F101" s="18">
         <v>46400</v>
@@ -3126,240 +3117,56 @@
       <c r="J101" s="20"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F102" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F103" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F105" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F106" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="B102" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G102" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="26"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F107" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="B107" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="H107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F109" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F110" s="24">
-        <v>21654</v>
-      </c>
-      <c r="G110" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="26"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C115" s="32"/>
-      <c r="H115" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C116" s="32"/>
-      <c r="H116" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="B108" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="H108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H107:J107"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
